--- a/第4章excel/excel资料/第4章/课堂文件/课堂文件-数据透视表.xlsx
+++ b/第4章excel/excel资料/第4章/课堂文件/课堂文件-数据透视表.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="13">
   <si>
     <t>创建日期</t>
   </si>
@@ -60,170 +56,12 @@
   <si>
     <t>系列A-4</t>
   </si>
-  <si>
-    <t>列标签</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>行标签</t>
-  </si>
-  <si>
-    <t>求和项:总金额</t>
-  </si>
-  <si>
-    <t>(全部)</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>筛选出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2017/1/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日，系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>a-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的销售总额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恢复刚才的筛选（创建日期为全选，列标签为全选）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将总金额的计算类型改为计数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将创建日期拖动到列标签，观察变化</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拖动创建日期到报表筛选区域</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再添加一个总金额字段到数值区域，计算类型为求和</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="32"/>
-        <color rgb="FF000000"/>
-        <rFont val="华文新魏"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除计数项</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,25 +75,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="32"/>
-      <color rgb="FF000000"/>
-      <name val="华文新魏"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="32"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="6.6"/>
-      <color rgb="FF3333CC"/>
-      <name val="+mj-lt"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,21 +97,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,2110 +117,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="43800.554581481483" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="300">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D301" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="创建日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-01-01T00:00:00" maxDate="2017-04-01T00:00:00" count="86">
-        <d v="2017-01-01T00:00:00"/>
-        <d v="2017-01-02T00:00:00"/>
-        <d v="2017-01-03T00:00:00"/>
-        <d v="2017-01-04T00:00:00"/>
-        <d v="2017-01-05T00:00:00"/>
-        <d v="2017-01-06T00:00:00"/>
-        <d v="2017-01-07T00:00:00"/>
-        <d v="2017-01-09T00:00:00"/>
-        <d v="2017-01-10T00:00:00"/>
-        <d v="2017-01-11T00:00:00"/>
-        <d v="2017-01-12T00:00:00"/>
-        <d v="2017-01-13T00:00:00"/>
-        <d v="2017-01-14T00:00:00"/>
-        <d v="2017-01-15T00:00:00"/>
-        <d v="2017-01-16T00:00:00"/>
-        <d v="2017-01-17T00:00:00"/>
-        <d v="2017-01-18T00:00:00"/>
-        <d v="2017-01-19T00:00:00"/>
-        <d v="2017-01-20T00:00:00"/>
-        <d v="2017-01-21T00:00:00"/>
-        <d v="2017-01-23T00:00:00"/>
-        <d v="2017-01-24T00:00:00"/>
-        <d v="2017-01-26T00:00:00"/>
-        <d v="2017-01-27T00:00:00"/>
-        <d v="2017-01-29T00:00:00"/>
-        <d v="2017-01-30T00:00:00"/>
-        <d v="2017-01-31T00:00:00"/>
-        <d v="2017-02-01T00:00:00"/>
-        <d v="2017-02-02T00:00:00"/>
-        <d v="2017-02-03T00:00:00"/>
-        <d v="2017-02-04T00:00:00"/>
-        <d v="2017-02-05T00:00:00"/>
-        <d v="2017-02-06T00:00:00"/>
-        <d v="2017-02-07T00:00:00"/>
-        <d v="2017-02-08T00:00:00"/>
-        <d v="2017-02-09T00:00:00"/>
-        <d v="2017-02-10T00:00:00"/>
-        <d v="2017-02-11T00:00:00"/>
-        <d v="2017-02-12T00:00:00"/>
-        <d v="2017-02-13T00:00:00"/>
-        <d v="2017-02-14T00:00:00"/>
-        <d v="2017-02-15T00:00:00"/>
-        <d v="2017-02-16T00:00:00"/>
-        <d v="2017-02-17T00:00:00"/>
-        <d v="2017-02-18T00:00:00"/>
-        <d v="2017-02-19T00:00:00"/>
-        <d v="2017-02-20T00:00:00"/>
-        <d v="2017-02-21T00:00:00"/>
-        <d v="2017-02-22T00:00:00"/>
-        <d v="2017-02-23T00:00:00"/>
-        <d v="2017-02-24T00:00:00"/>
-        <d v="2017-02-25T00:00:00"/>
-        <d v="2017-02-26T00:00:00"/>
-        <d v="2017-02-27T00:00:00"/>
-        <d v="2017-02-28T00:00:00"/>
-        <d v="2017-03-01T00:00:00"/>
-        <d v="2017-03-02T00:00:00"/>
-        <d v="2017-03-03T00:00:00"/>
-        <d v="2017-03-04T00:00:00"/>
-        <d v="2017-03-05T00:00:00"/>
-        <d v="2017-03-06T00:00:00"/>
-        <d v="2017-03-07T00:00:00"/>
-        <d v="2017-03-08T00:00:00"/>
-        <d v="2017-03-09T00:00:00"/>
-        <d v="2017-03-10T00:00:00"/>
-        <d v="2017-03-11T00:00:00"/>
-        <d v="2017-03-12T00:00:00"/>
-        <d v="2017-03-13T00:00:00"/>
-        <d v="2017-03-14T00:00:00"/>
-        <d v="2017-03-15T00:00:00"/>
-        <d v="2017-03-16T00:00:00"/>
-        <d v="2017-03-17T00:00:00"/>
-        <d v="2017-03-18T00:00:00"/>
-        <d v="2017-03-19T00:00:00"/>
-        <d v="2017-03-20T00:00:00"/>
-        <d v="2017-03-21T00:00:00"/>
-        <d v="2017-03-22T00:00:00"/>
-        <d v="2017-03-23T00:00:00"/>
-        <d v="2017-03-24T00:00:00"/>
-        <d v="2017-03-25T00:00:00"/>
-        <d v="2017-03-26T00:00:00"/>
-        <d v="2017-03-27T00:00:00"/>
-        <d v="2017-03-28T00:00:00"/>
-        <d v="2017-03-29T00:00:00"/>
-        <d v="2017-03-30T00:00:00"/>
-        <d v="2017-03-31T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="产品系列" numFmtId="0">
-      <sharedItems count="2">
-        <s v="系列A"/>
-        <s v="系列B"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="产品小类" numFmtId="0">
-      <sharedItems count="7">
-        <s v="系列A-1"/>
-        <s v="系列A-2"/>
-        <s v="系列B-1"/>
-        <s v="系列B-2"/>
-        <s v="系列A-3"/>
-        <s v="系列B-3"/>
-        <s v="系列A-4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="总金额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="42771"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="300">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="128"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1959"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="789"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="5360"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="5060"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="248"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="424"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="179"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2359"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="11045"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4565"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="131"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="88"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="499"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2502"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="318"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="582"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8521"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="1571"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="30568"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="268"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="1558"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="13590"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="259"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="10370"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="667"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="121"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="292"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="221"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="82"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="578"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4556"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="39568"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="256"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="521"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="359"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="268"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="84"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="784"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="648"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="6887"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="121"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="934"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="106"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="2578"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="401"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="2210"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="15606"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="5864"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="16629"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="15630"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="88"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4552"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="4630"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="632"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="279"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="381"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="6865"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="397"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1233"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="38"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="205"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="12314"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="2380"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="129"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="8009"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1596"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="615"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1318"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="4863"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="561"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="354"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="369"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="1577"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="246"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="165"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8840"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="11334"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="19004"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="495"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="198"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="263"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="998"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="825"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="381"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="71"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="7480"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="13590"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="421"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="589"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="129"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="551"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="14803"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="196"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="132"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1109"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="5892"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="2575"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="36"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="10872"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="176"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="617"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="129"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="389"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="450"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="25245"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="6740"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="235"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="810"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1177"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="972"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2252"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="167"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="6865"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="3556"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="318"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="888"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="733"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="341"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="250"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="2210"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="9860"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="87"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="106"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="15456"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="801"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="217"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="315"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="127"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="14803"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="1430"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="42771"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="227"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="152"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="205"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="362"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="6430"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="16629"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1023"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="512"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="197"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="749"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="7190"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="10012"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="289"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="88"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1059"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="14879"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="701"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="579"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="5392"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="2295"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="7151"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="3889"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4531"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="28263"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1205"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="995"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="10766"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="4004"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="3408"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="124"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="127"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="525"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="346"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="180"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="121"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="101"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="1572"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="148"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="135"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="7504"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="16309"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="126"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="11334"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="154"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="142"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="4943"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="311"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="107"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="196"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="72"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="585"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="123"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="57"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="6347"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="9974"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="621"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="98"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="36"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="1358"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="36742"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="172"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="329"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="78"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="137"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="1487"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1325"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1095"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="2295"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="21384"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="5435"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="57"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8409"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="880"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="177"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="119"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8500"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="929"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="148"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="6066"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="25871"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="2694"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="36"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="7509"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="6112"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="350"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="13624"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="11606"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="421"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="437"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="4925"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="2815"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="2963"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1558"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="73"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1031"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="756"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="203"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="61"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="85"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="4005"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="26850"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="180"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="121"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="7480"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="282"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="207"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="14130"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="207"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2574"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="705"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1886"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="73"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="74"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="8160"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="5186"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="689"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="121"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="5168"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="183"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="7480"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="377"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="241"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="13590"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="11085"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="413"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="139"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="353"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="669"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="267"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="55"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="273"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="172"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1266"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="18348"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="29676"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="94"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="251"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="129"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="8295"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="545"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="341"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="215"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="331"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="4494"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="2359"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="4580"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="31089"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="93"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="22"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="19004"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="5569"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="11416"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="5149"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="4630"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="856"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="212"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="648"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="377"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:I7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="87">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="求和项:总金额" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2701,16 +408,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="12" customWidth="1"/>
+    <col min="16" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="46" width="12" customWidth="1"/>
+    <col min="47" max="52" width="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="71" width="12" customWidth="1"/>
+    <col min="72" max="77" width="12" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12" customWidth="1"/>
+    <col min="79" max="88" width="12" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12" customWidth="1"/>
+    <col min="90" max="92" width="12" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12" customWidth="1"/>
+    <col min="94" max="94" width="5.75" customWidth="1"/>
+    <col min="95" max="95" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -2738,7 +460,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>42736</v>
       </c>
@@ -2752,7 +474,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42736</v>
       </c>
@@ -2766,7 +488,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42736</v>
       </c>
@@ -2780,7 +502,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>42736</v>
       </c>
@@ -2794,7 +516,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>42737</v>
       </c>
@@ -2808,7 +530,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>42737</v>
       </c>
@@ -2822,7 +544,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>42737</v>
       </c>
@@ -2836,7 +558,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>42737</v>
       </c>
@@ -2850,7 +572,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>42737</v>
       </c>
@@ -2864,7 +586,7 @@
         <v>11045</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42737</v>
       </c>
@@ -2878,7 +600,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42738</v>
       </c>
@@ -2892,7 +614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>42738</v>
       </c>
@@ -2906,7 +628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>42738</v>
       </c>
@@ -2920,7 +642,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>42738</v>
       </c>
@@ -2934,7 +656,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>42739</v>
       </c>
@@ -2948,7 +670,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42739</v>
       </c>
@@ -2962,7 +684,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>42739</v>
       </c>
@@ -2976,7 +698,7 @@
         <v>8521</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42739</v>
       </c>
@@ -2990,7 +712,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42739</v>
       </c>
@@ -3004,7 +726,7 @@
         <v>30568</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>42740</v>
       </c>
@@ -3018,7 +740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42740</v>
       </c>
@@ -3032,7 +754,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42740</v>
       </c>
@@ -3046,7 +768,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42741</v>
       </c>
@@ -3060,7 +782,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42741</v>
       </c>
@@ -3074,7 +796,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42742</v>
       </c>
@@ -3088,7 +810,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42742</v>
       </c>
@@ -3102,7 +824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>42742</v>
       </c>
@@ -3116,7 +838,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>42744</v>
       </c>
@@ -3130,7 +852,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42744</v>
       </c>
@@ -3144,7 +866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>42744</v>
       </c>
@@ -3158,7 +880,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>42744</v>
       </c>
@@ -3172,7 +894,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>42744</v>
       </c>
@@ -3186,7 +908,7 @@
         <v>39568</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>42745</v>
       </c>
@@ -3200,7 +922,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>42746</v>
       </c>
@@ -3214,7 +936,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>42747</v>
       </c>
@@ -3228,7 +950,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>42747</v>
       </c>
@@ -3242,7 +964,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>42747</v>
       </c>
@@ -3256,7 +978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>42748</v>
       </c>
@@ -3270,7 +992,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>42748</v>
       </c>
@@ -3284,7 +1006,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42748</v>
       </c>
@@ -3298,7 +1020,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42749</v>
       </c>
@@ -3312,7 +1034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42749</v>
       </c>
@@ -3326,7 +1048,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42749</v>
       </c>
@@ -3340,7 +1062,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>42749</v>
       </c>
@@ -3354,7 +1076,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>42750</v>
       </c>
@@ -3368,7 +1090,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>42750</v>
       </c>
@@ -3382,7 +1104,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>42750</v>
       </c>
@@ -3396,7 +1118,7 @@
         <v>15606</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>42750</v>
       </c>
@@ -3410,7 +1132,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>42751</v>
       </c>
@@ -3424,7 +1146,7 @@
         <v>16629</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>42751</v>
       </c>
@@ -3438,7 +1160,7 @@
         <v>15630</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>42752</v>
       </c>
@@ -3452,7 +1174,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>42752</v>
       </c>
@@ -3466,7 +1188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42752</v>
       </c>
@@ -3480,7 +1202,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42752</v>
       </c>
@@ -3494,7 +1216,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42753</v>
       </c>
@@ -3508,7 +1230,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42753</v>
       </c>
@@ -3522,7 +1244,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42753</v>
       </c>
@@ -3536,7 +1258,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42753</v>
       </c>
@@ -3550,7 +1272,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42754</v>
       </c>
@@ -3564,7 +1286,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42754</v>
       </c>
@@ -3578,7 +1300,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>42754</v>
       </c>
@@ -3592,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42754</v>
       </c>
@@ -3606,7 +1328,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42754</v>
       </c>
@@ -3620,7 +1342,7 @@
         <v>12314</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42755</v>
       </c>
@@ -3634,7 +1356,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42756</v>
       </c>
@@ -3648,7 +1370,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42756</v>
       </c>
@@ -3662,7 +1384,7 @@
         <v>8009</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42758</v>
       </c>
@@ -3676,7 +1398,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42758</v>
       </c>
@@ -3690,7 +1412,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42758</v>
       </c>
@@ -3704,7 +1426,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42758</v>
       </c>
@@ -3718,7 +1440,7 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42759</v>
       </c>
@@ -3732,7 +1454,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42759</v>
       </c>
@@ -3746,7 +1468,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42759</v>
       </c>
@@ -3760,7 +1482,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42759</v>
       </c>
@@ -3774,7 +1496,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>42761</v>
       </c>
@@ -3788,7 +1510,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42761</v>
       </c>
@@ -3802,7 +1524,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42761</v>
       </c>
@@ -3816,7 +1538,7 @@
         <v>8840</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>42761</v>
       </c>
@@ -3830,7 +1552,7 @@
         <v>11334</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42761</v>
       </c>
@@ -3844,7 +1566,7 @@
         <v>19004</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>42762</v>
       </c>
@@ -3858,7 +1580,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42762</v>
       </c>
@@ -3872,7 +1594,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>42762</v>
       </c>
@@ -3886,7 +1608,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42762</v>
       </c>
@@ -3900,7 +1622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42764</v>
       </c>
@@ -3914,7 +1636,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>42764</v>
       </c>
@@ -3928,7 +1650,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>42764</v>
       </c>
@@ -3942,7 +1664,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42764</v>
       </c>
@@ -3956,7 +1678,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42764</v>
       </c>
@@ -3970,7 +1692,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>42764</v>
       </c>
@@ -3984,7 +1706,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42765</v>
       </c>
@@ -3998,7 +1720,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>42765</v>
       </c>
@@ -4012,7 +1734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42765</v>
       </c>
@@ -4026,7 +1748,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42766</v>
       </c>
@@ -4040,7 +1762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42767</v>
       </c>
@@ -4054,7 +1776,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>42767</v>
       </c>
@@ -4068,7 +1790,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>42767</v>
       </c>
@@ -4082,7 +1804,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>42767</v>
       </c>
@@ -4096,7 +1818,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>42767</v>
       </c>
@@ -4110,7 +1832,7 @@
         <v>14803</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>42768</v>
       </c>
@@ -4124,7 +1846,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>42768</v>
       </c>
@@ -4138,7 +1860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>42768</v>
       </c>
@@ -4152,7 +1874,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>42768</v>
       </c>
@@ -4166,7 +1888,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>42768</v>
       </c>
@@ -4180,7 +1902,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>42769</v>
       </c>
@@ -4194,7 +1916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>42769</v>
       </c>
@@ -4208,7 +1930,7 @@
         <v>10872</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>42770</v>
       </c>
@@ -4222,7 +1944,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>42770</v>
       </c>
@@ -4236,7 +1958,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>42770</v>
       </c>
@@ -4250,7 +1972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>42770</v>
       </c>
@@ -4264,7 +1986,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>42770</v>
       </c>
@@ -4278,7 +2000,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>42770</v>
       </c>
@@ -4292,7 +2014,7 @@
         <v>25245</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>42771</v>
       </c>
@@ -4306,7 +2028,7 @@
         <v>6740</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>42772</v>
       </c>
@@ -4320,7 +2042,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>42772</v>
       </c>
@@ -4334,7 +2056,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>42772</v>
       </c>
@@ -4348,7 +2070,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>42772</v>
       </c>
@@ -4362,7 +2084,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>42772</v>
       </c>
@@ -4376,7 +2098,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>42773</v>
       </c>
@@ -4390,7 +2112,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>42773</v>
       </c>
@@ -4404,7 +2126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>42773</v>
       </c>
@@ -4418,7 +2140,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>42773</v>
       </c>
@@ -4432,7 +2154,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>42774</v>
       </c>
@@ -4446,7 +2168,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>42774</v>
       </c>
@@ -4460,7 +2182,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>42774</v>
       </c>
@@ -4474,7 +2196,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42775</v>
       </c>
@@ -4488,7 +2210,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42775</v>
       </c>
@@ -4502,7 +2224,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42775</v>
       </c>
@@ -4516,7 +2238,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42775</v>
       </c>
@@ -4530,7 +2252,7 @@
         <v>9860</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42776</v>
       </c>
@@ -4544,7 +2266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>42776</v>
       </c>
@@ -4558,7 +2280,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>42776</v>
       </c>
@@ -4572,7 +2294,7 @@
         <v>15456</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>42777</v>
       </c>
@@ -4586,7 +2308,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>42777</v>
       </c>
@@ -4600,7 +2322,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>42777</v>
       </c>
@@ -4614,7 +2336,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>42778</v>
       </c>
@@ -4628,7 +2350,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>42779</v>
       </c>
@@ -4642,7 +2364,7 @@
         <v>14803</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>42779</v>
       </c>
@@ -4656,7 +2378,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>42779</v>
       </c>
@@ -4670,7 +2392,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>42780</v>
       </c>
@@ -4684,7 +2406,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>42780</v>
       </c>
@@ -4698,7 +2420,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>42780</v>
       </c>
@@ -4712,7 +2434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>42780</v>
       </c>
@@ -4726,7 +2448,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>42780</v>
       </c>
@@ -4740,7 +2462,7 @@
         <v>6430</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>42780</v>
       </c>
@@ -4754,7 +2476,7 @@
         <v>16629</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>42781</v>
       </c>
@@ -4768,7 +2490,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>42781</v>
       </c>
@@ -4782,7 +2504,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>42781</v>
       </c>
@@ -4796,7 +2518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>42781</v>
       </c>
@@ -4810,7 +2532,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>42781</v>
       </c>
@@ -4824,7 +2546,7 @@
         <v>7190</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>42781</v>
       </c>
@@ -4838,7 +2560,7 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>42782</v>
       </c>
@@ -4852,7 +2574,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>42782</v>
       </c>
@@ -4866,7 +2588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>42783</v>
       </c>
@@ -4880,7 +2602,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>42783</v>
       </c>
@@ -4894,7 +2616,7 @@
         <v>14879</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>42784</v>
       </c>
@@ -4908,7 +2630,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>42784</v>
       </c>
@@ -4922,7 +2644,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>42784</v>
       </c>
@@ -4936,7 +2658,7 @@
         <v>5392</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>42784</v>
       </c>
@@ -4950,7 +2672,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>42784</v>
       </c>
@@ -4964,7 +2686,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>42784</v>
       </c>
@@ -4978,7 +2700,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>42785</v>
       </c>
@@ -4992,7 +2714,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>42785</v>
       </c>
@@ -5006,7 +2728,7 @@
         <v>28263</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>42786</v>
       </c>
@@ -5020,7 +2742,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>42786</v>
       </c>
@@ -5034,7 +2756,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>42786</v>
       </c>
@@ -5048,7 +2770,7 @@
         <v>10766</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>42786</v>
       </c>
@@ -5062,7 +2784,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>42786</v>
       </c>
@@ -5076,7 +2798,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>42787</v>
       </c>
@@ -5090,7 +2812,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>42787</v>
       </c>
@@ -5104,7 +2826,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>42787</v>
       </c>
@@ -5118,7 +2840,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>42787</v>
       </c>
@@ -5132,7 +2854,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>42788</v>
       </c>
@@ -5146,7 +2868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>42788</v>
       </c>
@@ -5160,7 +2882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>42788</v>
       </c>
@@ -5174,7 +2896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>42788</v>
       </c>
@@ -5188,7 +2910,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>42789</v>
       </c>
@@ -5202,7 +2924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>42789</v>
       </c>
@@ -5216,7 +2938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>42789</v>
       </c>
@@ -5230,7 +2952,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>42789</v>
       </c>
@@ -5244,7 +2966,7 @@
         <v>16309</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>42790</v>
       </c>
@@ -5258,7 +2980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>42790</v>
       </c>
@@ -5272,7 +2994,7 @@
         <v>11334</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>42791</v>
       </c>
@@ -5286,7 +3008,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>42791</v>
       </c>
@@ -5300,7 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>42791</v>
       </c>
@@ -5314,7 +3036,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>42792</v>
       </c>
@@ -5328,7 +3050,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>42792</v>
       </c>
@@ -5342,7 +3064,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>42792</v>
       </c>
@@ -5356,7 +3078,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>42792</v>
       </c>
@@ -5370,7 +3092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>42793</v>
       </c>
@@ -5384,7 +3106,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>42793</v>
       </c>
@@ -5398,7 +3120,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>42793</v>
       </c>
@@ -5412,7 +3134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>42793</v>
       </c>
@@ -5426,7 +3148,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>42793</v>
       </c>
@@ -5440,7 +3162,7 @@
         <v>9974</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>42794</v>
       </c>
@@ -5454,7 +3176,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>42794</v>
       </c>
@@ -5468,7 +3190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>42794</v>
       </c>
@@ -5482,7 +3204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>42794</v>
       </c>
@@ -5496,7 +3218,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>42794</v>
       </c>
@@ -5510,7 +3232,7 @@
         <v>36742</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>42795</v>
       </c>
@@ -5524,7 +3246,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>42795</v>
       </c>
@@ -5538,7 +3260,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>42795</v>
       </c>
@@ -5552,7 +3274,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>42795</v>
       </c>
@@ -5566,7 +3288,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>42795</v>
       </c>
@@ -5580,7 +3302,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>42796</v>
       </c>
@@ -5594,7 +3316,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>42796</v>
       </c>
@@ -5608,7 +3330,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>42796</v>
       </c>
@@ -5622,7 +3344,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>42796</v>
       </c>
@@ -5636,7 +3358,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>42796</v>
       </c>
@@ -5650,7 +3372,7 @@
         <v>5435</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>42797</v>
       </c>
@@ -5664,7 +3386,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>42797</v>
       </c>
@@ -5678,7 +3400,7 @@
         <v>8409</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>42798</v>
       </c>
@@ -5692,7 +3414,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>42798</v>
       </c>
@@ -5706,7 +3428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>42798</v>
       </c>
@@ -5720,7 +3442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>42798</v>
       </c>
@@ -5734,7 +3456,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>42799</v>
       </c>
@@ -5748,7 +3470,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>42799</v>
       </c>
@@ -5762,7 +3484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>42799</v>
       </c>
@@ -5776,7 +3498,7 @@
         <v>6066</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>42799</v>
       </c>
@@ -5790,7 +3512,7 @@
         <v>25871</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>42799</v>
       </c>
@@ -5804,7 +3526,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>42800</v>
       </c>
@@ -5818,7 +3540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>42800</v>
       </c>
@@ -5832,7 +3554,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>42800</v>
       </c>
@@ -5846,7 +3568,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>42801</v>
       </c>
@@ -5860,7 +3582,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>42801</v>
       </c>
@@ -5874,7 +3596,7 @@
         <v>13624</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>42801</v>
       </c>
@@ -5888,7 +3610,7 @@
         <v>11606</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>42802</v>
       </c>
@@ -5902,7 +3624,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>42802</v>
       </c>
@@ -5916,7 +3638,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>42802</v>
       </c>
@@ -5930,7 +3652,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>42802</v>
       </c>
@@ -5944,7 +3666,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>42803</v>
       </c>
@@ -5958,7 +3680,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>42804</v>
       </c>
@@ -5972,7 +3694,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>42805</v>
       </c>
@@ -5986,7 +3708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>42806</v>
       </c>
@@ -6000,7 +3722,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>42806</v>
       </c>
@@ -6014,7 +3736,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>42806</v>
       </c>
@@ -6028,7 +3750,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>42806</v>
       </c>
@@ -6042,7 +3764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>42807</v>
       </c>
@@ -6056,7 +3778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>42807</v>
       </c>
@@ -6070,7 +3792,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>42807</v>
       </c>
@@ -6084,7 +3806,7 @@
         <v>26850</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>42808</v>
       </c>
@@ -6098,7 +3820,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>42808</v>
       </c>
@@ -6112,7 +3834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>42808</v>
       </c>
@@ -6126,7 +3848,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>42809</v>
       </c>
@@ -6140,7 +3862,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>42809</v>
       </c>
@@ -6154,7 +3876,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>42809</v>
       </c>
@@ -6168,7 +3890,7 @@
         <v>14130</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>42810</v>
       </c>
@@ -6182,7 +3904,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>42810</v>
       </c>
@@ -6196,7 +3918,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>42811</v>
       </c>
@@ -6210,7 +3932,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>42811</v>
       </c>
@@ -6224,7 +3946,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>42811</v>
       </c>
@@ -6238,7 +3960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>42811</v>
       </c>
@@ -6252,7 +3974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>42811</v>
       </c>
@@ -6266,7 +3988,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>42811</v>
       </c>
@@ -6280,7 +4002,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>42812</v>
       </c>
@@ -6294,7 +4016,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>42812</v>
       </c>
@@ -6308,7 +4030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>42812</v>
       </c>
@@ -6322,7 +4044,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>42813</v>
       </c>
@@ -6336,7 +4058,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>42813</v>
       </c>
@@ -6350,7 +4072,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>42814</v>
       </c>
@@ -6364,7 +4086,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>42814</v>
       </c>
@@ -6378,7 +4100,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>42814</v>
       </c>
@@ -6392,7 +4114,7 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>42814</v>
       </c>
@@ -6406,7 +4128,7 @@
         <v>11085</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>42815</v>
       </c>
@@ -6420,7 +4142,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>42815</v>
       </c>
@@ -6434,7 +4156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>42815</v>
       </c>
@@ -6448,7 +4170,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>42816</v>
       </c>
@@ -6462,7 +4184,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>42816</v>
       </c>
@@ -6476,7 +4198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>42816</v>
       </c>
@@ -6490,7 +4212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>42817</v>
       </c>
@@ -6504,7 +4226,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>42817</v>
       </c>
@@ -6518,7 +4240,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>42817</v>
       </c>
@@ -6532,7 +4254,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>42817</v>
       </c>
@@ -6546,7 +4268,7 @@
         <v>18348</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>42817</v>
       </c>
@@ -6560,7 +4282,7 @@
         <v>29676</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>42818</v>
       </c>
@@ -6574,7 +4296,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>42818</v>
       </c>
@@ -6588,7 +4310,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>42818</v>
       </c>
@@ -6602,7 +4324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>42818</v>
       </c>
@@ -6616,7 +4338,7 @@
         <v>8295</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>42819</v>
       </c>
@@ -6630,7 +4352,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>42820</v>
       </c>
@@ -6644,7 +4366,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>42820</v>
       </c>
@@ -6658,7 +4380,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>42820</v>
       </c>
@@ -6672,7 +4394,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>42820</v>
       </c>
@@ -6686,7 +4408,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>42821</v>
       </c>
@@ -6700,7 +4422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>42821</v>
       </c>
@@ -6714,7 +4436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>42821</v>
       </c>
@@ -6728,7 +4450,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>42821</v>
       </c>
@@ -6742,7 +4464,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>42821</v>
       </c>
@@ -6756,7 +4478,7 @@
         <v>31089</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>42822</v>
       </c>
@@ -6770,7 +4492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>42822</v>
       </c>
@@ -6784,7 +4506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>42822</v>
       </c>
@@ -6798,7 +4520,7 @@
         <v>19004</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>42822</v>
       </c>
@@ -6812,7 +4534,7 @@
         <v>5569</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>42823</v>
       </c>
@@ -6826,7 +4548,7 @@
         <v>11416</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>42823</v>
       </c>
@@ -6840,7 +4562,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>42823</v>
       </c>
@@ -6854,7 +4576,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>42824</v>
       </c>
@@ -6868,7 +4590,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>42824</v>
       </c>
@@ -6882,7 +4604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>42824</v>
       </c>
@@ -6896,7 +4618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>42824</v>
       </c>
@@ -6910,7 +4632,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>42825</v>
       </c>
@@ -6933,40 +4655,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="40.5">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="40.5">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="40.5">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="40.5">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="40.5">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6974,407 +4670,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="40.5">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="40.5">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
-    <col min="15" max="15" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.75" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="19" width="9.125" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.125" customWidth="1"/>
-    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.125" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.125" customWidth="1"/>
-    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.125" customWidth="1"/>
-    <col min="36" max="36" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.125" customWidth="1"/>
-    <col min="44" max="44" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.125" customWidth="1"/>
-    <col min="48" max="48" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="9.125" customWidth="1"/>
-    <col min="52" max="52" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14" customWidth="1"/>
-    <col min="54" max="56" width="9.125" customWidth="1"/>
-    <col min="57" max="57" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.125" customWidth="1"/>
-    <col min="60" max="60" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="9.125" customWidth="1"/>
-    <col min="64" max="64" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="9.125" customWidth="1"/>
-    <col min="68" max="68" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="9.125" customWidth="1"/>
-    <col min="73" max="73" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.125" customWidth="1"/>
-    <col min="78" max="78" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="9.125" customWidth="1"/>
-    <col min="82" max="82" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="9.125" customWidth="1"/>
-    <col min="86" max="86" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="9.125" customWidth="1"/>
-    <col min="90" max="90" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="14" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="97" width="9.125" customWidth="1"/>
-    <col min="98" max="98" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.125" customWidth="1"/>
-    <col min="101" max="101" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="105" max="107" width="9.125" customWidth="1"/>
-    <col min="108" max="108" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="110" max="112" width="9.125" customWidth="1"/>
-    <col min="113" max="113" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.125" customWidth="1"/>
-    <col min="116" max="116" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="118" max="119" width="9.125" customWidth="1"/>
-    <col min="120" max="120" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="9.125" customWidth="1"/>
-    <col min="126" max="126" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="9.125" customWidth="1"/>
-    <col min="130" max="130" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="9.125" customWidth="1"/>
-    <col min="133" max="133" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="135" max="137" width="9.125" customWidth="1"/>
-    <col min="138" max="138" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="14" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="9.125" customWidth="1"/>
-    <col min="142" max="142" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="14" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="9.125" customWidth="1"/>
-    <col min="145" max="145" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="14" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="153" width="9.125" customWidth="1"/>
-    <col min="154" max="154" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="14" bestFit="1" customWidth="1"/>
-    <col min="156" max="158" width="9.125" customWidth="1"/>
-    <col min="159" max="159" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="14" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="9.125" customWidth="1"/>
-    <col min="164" max="164" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="14" bestFit="1" customWidth="1"/>
-    <col min="166" max="168" width="9.125" customWidth="1"/>
-    <col min="169" max="169" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="9.125" customWidth="1"/>
-    <col min="172" max="172" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="14" bestFit="1" customWidth="1"/>
-    <col min="174" max="176" width="9.125" customWidth="1"/>
-    <col min="177" max="177" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="14" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14" bestFit="1" customWidth="1"/>
-    <col min="181" max="183" width="9.125" customWidth="1"/>
-    <col min="184" max="184" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="14" bestFit="1" customWidth="1"/>
-    <col min="186" max="188" width="9.125" customWidth="1"/>
-    <col min="189" max="189" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="14" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="9.125" customWidth="1"/>
-    <col min="192" max="192" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14" bestFit="1" customWidth="1"/>
-    <col min="194" max="195" width="9.125" customWidth="1"/>
-    <col min="196" max="196" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="14" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.125" customWidth="1"/>
-    <col min="199" max="199" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="14" bestFit="1" customWidth="1"/>
-    <col min="201" max="202" width="9.125" customWidth="1"/>
-    <col min="203" max="203" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14" bestFit="1" customWidth="1"/>
-    <col min="205" max="207" width="9.125" customWidth="1"/>
-    <col min="208" max="208" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="210" max="211" width="9.125" customWidth="1"/>
-    <col min="212" max="212" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="214" max="217" width="9.125" customWidth="1"/>
-    <col min="218" max="218" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="9.125" customWidth="1"/>
-    <col min="221" max="221" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="223" max="224" width="9.125" customWidth="1"/>
-    <col min="225" max="225" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="227" max="228" width="9.125" customWidth="1"/>
-    <col min="229" max="229" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="9.125" customWidth="1"/>
-    <col min="232" max="232" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.125" customWidth="1"/>
-    <col min="235" max="235" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="237" max="238" width="9.125" customWidth="1"/>
-    <col min="239" max="239" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="14" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="14" bestFit="1" customWidth="1"/>
-    <col min="247" max="248" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="14" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="14" bestFit="1" customWidth="1"/>
-    <col min="254" max="255" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="14" bestFit="1" customWidth="1"/>
-    <col min="258" max="259" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="14" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="14" bestFit="1" customWidth="1"/>
-    <col min="265" max="267" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="14" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="14" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="14" bestFit="1" customWidth="1"/>
-    <col min="276" max="277" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="14" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="14" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="14" bestFit="1" customWidth="1"/>
-    <col min="286" max="287" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="14" bestFit="1" customWidth="1"/>
-    <col min="290" max="291" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="14" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="14" bestFit="1" customWidth="1"/>
-    <col min="296" max="298" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="14" bestFit="1" customWidth="1"/>
-    <col min="301" max="304" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="14" bestFit="1" customWidth="1"/>
-    <col min="307" max="309" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="14" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="14" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="14" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>35068</v>
-      </c>
-      <c r="C5" s="5">
-        <v>31001</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7764</v>
-      </c>
-      <c r="E5" s="5">
-        <v>96533</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>170366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>398675</v>
-      </c>
-      <c r="G6" s="5">
-        <v>118228</v>
-      </c>
-      <c r="H6" s="5">
-        <v>468903</v>
-      </c>
-      <c r="I6" s="5">
-        <v>985806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>35068</v>
-      </c>
-      <c r="C7" s="5">
-        <v>31001</v>
-      </c>
-      <c r="D7" s="5">
-        <v>7764</v>
-      </c>
-      <c r="E7" s="5">
-        <v>96533</v>
-      </c>
-      <c r="F7" s="5">
-        <v>398675</v>
-      </c>
-      <c r="G7" s="5">
-        <v>118228</v>
-      </c>
-      <c r="H7" s="5">
-        <v>468903</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1156172</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
 </file>